--- a/艾宾浩斯曲线.xlsx
+++ b/艾宾浩斯曲线.xlsx
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,7 +72,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,29 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -216,6 +216,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,168 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,17 +410,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,15 +445,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,145 +515,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1086,7 +1086,7 @@
         <v>43765</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/艾宾浩斯曲线.xlsx
+++ b/艾宾浩斯曲线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>艾宾浩斯曲线</t>
   </si>
@@ -38,6 +38,14 @@
 208. 实现 Trie (前缀树)</t>
   </si>
   <si>
+    <t>211. 添加与搜索单词 - 数据结构设计
+212. 单词搜索 II
+389. 找不同
+290. 单词规律
+387. 字符串中的第一个唯一字符
+3. 无重复字符的最长子串</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
@@ -49,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +73,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,105 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -216,6 +224,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -241,126 +369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,30 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +429,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +492,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -515,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,45 +1061,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
     <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:2">
+    <row r="1" ht="81" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43764</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43765</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43766</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1099,12 +1116,15 @@
         <v>43767</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43768</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1117,12 +1137,15 @@
         <v>43770</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43771</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1165,12 +1188,15 @@
         <v>43779</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43780</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1243,12 +1269,15 @@
         <v>43794</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43795</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1">

--- a/艾宾浩斯曲线.xlsx
+++ b/艾宾浩斯曲线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>艾宾浩斯曲线</t>
   </si>
@@ -46,6 +46,16 @@
 3. 无重复字符的最长子串</t>
   </si>
   <si>
+    <t>冒泡排序
+插入排序
+选择排序
+快速排序
+希尔排序
+归并排序
+计数排序
+76. 最小覆盖子串</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
@@ -57,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,8 +81,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,45 +197,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +234,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,7 +288,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,25 +348,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,126 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +425,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,15 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -523,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,21 +1071,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
     <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:3">
+    <row r="1" ht="108" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1083,13 +1094,16 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43764</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1097,26 +1111,32 @@
         <v>43765</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43766</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43767</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1124,12 +1144,15 @@
         <v>43768</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43769</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1137,7 +1160,7 @@
         <v>43770</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1145,12 +1168,15 @@
         <v>43771</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>43772</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1188,7 +1214,7 @@
         <v>43779</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1196,12 +1222,15 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>43781</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1269,7 +1298,7 @@
         <v>43794</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1277,12 +1306,15 @@
         <v>43795</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>43796</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1">

--- a/艾宾浩斯曲线.xlsx
+++ b/艾宾浩斯曲线.xlsx
@@ -81,6 +81,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -97,129 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,175 +234,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,26 +428,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,17 +482,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,30 +525,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,31 +545,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,100 +578,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1133,7 +1133,7 @@
         <v>43767</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
